--- a/projects/test_building/input/Scenario_HeatingTechnology_Cost_OM.xlsx
+++ b/projects/test_building/input/Scenario_HeatingTechnology_Cost_OM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C874BC98-6936-3040-AE30-E5A8CC9ED1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CF2577-9455-2248-86B4-92D925F89427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1300" yWindow="2740" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>id_region</t>
   </si>
@@ -178,7 +178,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -186,12 +186,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -240,8 +250,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AR2" totalsRowShown="0">
-  <autoFilter ref="A1:AR2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AR26" totalsRowShown="0">
+  <autoFilter ref="A1:AR26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="44">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_region"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_heating_technology" dataDxfId="0"/>
@@ -555,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AR26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="AN9" sqref="AN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -706,10 +716,10 @@
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -835,6 +845,3222 @@
         <v>1</v>
       </c>
       <c r="AR2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
+        <v>1</v>
+      </c>
+      <c r="AP6">
+        <v>1</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="AP7">
+        <v>1</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8">
+        <v>1</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9">
+        <v>1</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
+        <v>1</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
+        <v>1</v>
+      </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AR11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>210</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
+      </c>
+      <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
+        <v>1</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>211</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <v>1</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
+      </c>
+      <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
+        <v>1</v>
+      </c>
+      <c r="AP13">
+        <v>1</v>
+      </c>
+      <c r="AQ13">
+        <v>1</v>
+      </c>
+      <c r="AR13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1">
+        <v>212</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>1</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14">
+        <v>1</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
+      </c>
+      <c r="AJ14">
+        <v>1</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
+        <v>1</v>
+      </c>
+      <c r="AP14">
+        <v>1</v>
+      </c>
+      <c r="AQ14">
+        <v>1</v>
+      </c>
+      <c r="AR14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1">
+        <v>213</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>1</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AH15">
+        <v>1</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
+      </c>
+      <c r="AJ15">
+        <v>1</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
+        <v>1</v>
+      </c>
+      <c r="AP15">
+        <v>1</v>
+      </c>
+      <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AR15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
+      </c>
+      <c r="AJ16">
+        <v>1</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
+        <v>1</v>
+      </c>
+      <c r="AP16">
+        <v>1</v>
+      </c>
+      <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AR16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <v>1</v>
+      </c>
+      <c r="AG17">
+        <v>1</v>
+      </c>
+      <c r="AH17">
+        <v>1</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
+      </c>
+      <c r="AJ17">
+        <v>1</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
+        <v>1</v>
+      </c>
+      <c r="AP17">
+        <v>1</v>
+      </c>
+      <c r="AQ17">
+        <v>1</v>
+      </c>
+      <c r="AR17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18">
+        <v>1</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
+      </c>
+      <c r="AJ18">
+        <v>1</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
+        <v>1</v>
+      </c>
+      <c r="AP18">
+        <v>1</v>
+      </c>
+      <c r="AQ18">
+        <v>1</v>
+      </c>
+      <c r="AR18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
+      <c r="AH19">
+        <v>1</v>
+      </c>
+      <c r="AI19">
+        <v>1</v>
+      </c>
+      <c r="AJ19">
+        <v>1</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
+        <v>1</v>
+      </c>
+      <c r="AP19">
+        <v>1</v>
+      </c>
+      <c r="AQ19">
+        <v>1</v>
+      </c>
+      <c r="AR19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AH20">
+        <v>1</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
+      </c>
+      <c r="AJ20">
+        <v>1</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
+        <v>1</v>
+      </c>
+      <c r="AP20">
+        <v>1</v>
+      </c>
+      <c r="AQ20">
+        <v>1</v>
+      </c>
+      <c r="AR20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21">
+        <v>1</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
+      </c>
+      <c r="AJ21">
+        <v>1</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
+        <v>1</v>
+      </c>
+      <c r="AP21">
+        <v>1</v>
+      </c>
+      <c r="AQ21">
+        <v>1</v>
+      </c>
+      <c r="AR21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <v>1</v>
+      </c>
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22">
+        <v>1</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
+      </c>
+      <c r="AJ22">
+        <v>1</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
+        <v>1</v>
+      </c>
+      <c r="AP22">
+        <v>1</v>
+      </c>
+      <c r="AQ22">
+        <v>1</v>
+      </c>
+      <c r="AR22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>1</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23">
+        <v>1</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
+      </c>
+      <c r="AJ23">
+        <v>1</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
+        <v>1</v>
+      </c>
+      <c r="AP23">
+        <v>1</v>
+      </c>
+      <c r="AQ23">
+        <v>1</v>
+      </c>
+      <c r="AR23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+      <c r="AF24">
+        <v>1</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24">
+        <v>1</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
+      </c>
+      <c r="AJ24">
+        <v>1</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
+        <v>1</v>
+      </c>
+      <c r="AP24">
+        <v>1</v>
+      </c>
+      <c r="AQ24">
+        <v>1</v>
+      </c>
+      <c r="AR24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AF25">
+        <v>1</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25">
+        <v>1</v>
+      </c>
+      <c r="AI25">
+        <v>1</v>
+      </c>
+      <c r="AJ25">
+        <v>1</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
+        <v>1</v>
+      </c>
+      <c r="AP25">
+        <v>1</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AR25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
+      </c>
+      <c r="AC26">
+        <v>1</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <v>1</v>
+      </c>
+      <c r="AG26">
+        <v>1</v>
+      </c>
+      <c r="AH26">
+        <v>1</v>
+      </c>
+      <c r="AI26">
+        <v>1</v>
+      </c>
+      <c r="AJ26">
+        <v>1</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
+        <v>1</v>
+      </c>
+      <c r="AP26">
+        <v>1</v>
+      </c>
+      <c r="AQ26">
+        <v>1</v>
+      </c>
+      <c r="AR26">
         <v>1</v>
       </c>
     </row>
